--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/27/FD_Curve.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/27/FD_Curve.xlsx
@@ -477,10 +477,10 @@
         <v>0.0620038</v>
       </c>
       <c r="B4" t="n">
-        <v>1.57017</v>
+        <v>2.24424</v>
       </c>
       <c r="C4" t="n">
-        <v>1570.17</v>
+        <v>2244.24</v>
       </c>
     </row>
     <row r="5">
@@ -488,1077 +488,1077 @@
         <v>0.0929936</v>
       </c>
       <c r="B5" t="n">
-        <v>1.60177</v>
+        <v>3.42934</v>
       </c>
       <c r="C5" t="n">
-        <v>1601.77</v>
+        <v>3429.34</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.12397</v>
+        <v>0.124006</v>
       </c>
       <c r="B6" t="n">
-        <v>1.65614</v>
+        <v>4.399850000000001</v>
       </c>
       <c r="C6" t="n">
-        <v>1656.14</v>
+        <v>4399.85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.154946</v>
+        <v>0.155041</v>
       </c>
       <c r="B7" t="n">
-        <v>1.68382</v>
+        <v>5.63424</v>
       </c>
       <c r="C7" t="n">
-        <v>1683.82</v>
+        <v>5634.24</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.185922</v>
+        <v>0.186012</v>
       </c>
       <c r="B8" t="n">
-        <v>1.71304</v>
+        <v>6.66521</v>
       </c>
       <c r="C8" t="n">
-        <v>1713.04</v>
+        <v>6665.21</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.216899</v>
+        <v>0.216989</v>
       </c>
       <c r="B9" t="n">
-        <v>1.73536</v>
+        <v>7.08255</v>
       </c>
       <c r="C9" t="n">
-        <v>1735.36</v>
+        <v>7082.55</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.247875</v>
+        <v>0.247965</v>
       </c>
       <c r="B10" t="n">
-        <v>1.75966</v>
+        <v>7.45049</v>
       </c>
       <c r="C10" t="n">
-        <v>1759.66</v>
+        <v>7450.49</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.278869</v>
+        <v>0.278891</v>
       </c>
       <c r="B11" t="n">
-        <v>1.7814</v>
+        <v>7.6116</v>
       </c>
       <c r="C11" t="n">
-        <v>1781.4</v>
+        <v>7611.6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.309794</v>
+        <v>0.309816</v>
       </c>
       <c r="B12" t="n">
-        <v>1.80251</v>
+        <v>7.689550000000001</v>
       </c>
       <c r="C12" t="n">
-        <v>1802.51</v>
+        <v>7689.55</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.340719</v>
+        <v>0.340741</v>
       </c>
       <c r="B13" t="n">
-        <v>1.8227</v>
+        <v>7.73712</v>
       </c>
       <c r="C13" t="n">
-        <v>1822.7</v>
+        <v>7737.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.371644</v>
+        <v>0.371666</v>
       </c>
       <c r="B14" t="n">
-        <v>1.84277</v>
+        <v>7.74849</v>
       </c>
       <c r="C14" t="n">
-        <v>1842.77</v>
+        <v>7748.49</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.402569</v>
+        <v>0.402591</v>
       </c>
       <c r="B15" t="n">
-        <v>1.86196</v>
+        <v>7.745439999999999</v>
       </c>
       <c r="C15" t="n">
-        <v>1861.96</v>
+        <v>7745.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.433494</v>
+        <v>0.433516</v>
       </c>
       <c r="B16" t="n">
-        <v>1.88067</v>
+        <v>7.73864</v>
       </c>
       <c r="C16" t="n">
-        <v>1880.67</v>
+        <v>7738.64</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.464415</v>
+        <v>0.464441</v>
       </c>
       <c r="B17" t="n">
-        <v>1.89865</v>
+        <v>7.72908</v>
       </c>
       <c r="C17" t="n">
-        <v>1898.65</v>
+        <v>7729.08</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.49534</v>
+        <v>0.495366</v>
       </c>
       <c r="B18" t="n">
-        <v>1.91613</v>
+        <v>7.717810000000001</v>
       </c>
       <c r="C18" t="n">
-        <v>1916.13</v>
+        <v>7717.81</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.526265</v>
+        <v>0.526291</v>
       </c>
       <c r="B19" t="n">
-        <v>1.93334</v>
+        <v>7.70601</v>
       </c>
       <c r="C19" t="n">
-        <v>1933.34</v>
+        <v>7706.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.55719</v>
+        <v>0.557216</v>
       </c>
       <c r="B20" t="n">
-        <v>1.95013</v>
+        <v>7.69269</v>
       </c>
       <c r="C20" t="n">
-        <v>1950.13</v>
+        <v>7692.69</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.5881150000000001</v>
+        <v>0.588141</v>
       </c>
       <c r="B21" t="n">
-        <v>1.96651</v>
+        <v>7.679220000000001</v>
       </c>
       <c r="C21" t="n">
-        <v>1966.51</v>
+        <v>7679.22</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.619157</v>
+        <v>0.619183</v>
       </c>
       <c r="B22" t="n">
-        <v>1.98262</v>
+        <v>7.66465</v>
       </c>
       <c r="C22" t="n">
-        <v>1982.62</v>
+        <v>7664.65</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.650334</v>
+        <v>0.650356</v>
       </c>
       <c r="B23" t="n">
-        <v>1.99841</v>
+        <v>7.64942</v>
       </c>
       <c r="C23" t="n">
-        <v>1998.41</v>
+        <v>7649.42</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.681507</v>
+        <v>0.681528</v>
       </c>
       <c r="B24" t="n">
-        <v>2.01397</v>
+        <v>7.63337</v>
       </c>
       <c r="C24" t="n">
-        <v>2013.97</v>
+        <v>7633.37</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.712679</v>
+        <v>0.712705</v>
       </c>
       <c r="B25" t="n">
-        <v>2.0292</v>
+        <v>7.61626</v>
       </c>
       <c r="C25" t="n">
-        <v>2029.2</v>
+        <v>7616.26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.743856</v>
+        <v>0.743878</v>
       </c>
       <c r="B26" t="n">
-        <v>2.04415</v>
+        <v>7.598640000000001</v>
       </c>
       <c r="C26" t="n">
-        <v>2044.15</v>
+        <v>7598.64</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.775029</v>
+        <v>0.775055</v>
       </c>
       <c r="B27" t="n">
-        <v>2.05879</v>
+        <v>7.580270000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>2058.79</v>
+        <v>7580.27</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.8062009999999999</v>
+        <v>0.806227</v>
       </c>
       <c r="B28" t="n">
-        <v>2.07324</v>
+        <v>7.56073</v>
       </c>
       <c r="C28" t="n">
-        <v>2073.24</v>
+        <v>7560.73</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.837378</v>
+        <v>0.8374</v>
       </c>
       <c r="B29" t="n">
-        <v>2.08741</v>
+        <v>7.54056</v>
       </c>
       <c r="C29" t="n">
-        <v>2087.41</v>
+        <v>7540.56</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.868551</v>
+        <v>0.868577</v>
       </c>
       <c r="B30" t="n">
-        <v>2.10139</v>
+        <v>7.51978</v>
       </c>
       <c r="C30" t="n">
-        <v>2101.39</v>
+        <v>7519.78</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.899724</v>
+        <v>0.899749</v>
       </c>
       <c r="B31" t="n">
-        <v>2.11507</v>
+        <v>7.498340000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>2115.07</v>
+        <v>7498.34</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.930901</v>
+        <v>0.930922</v>
       </c>
       <c r="B32" t="n">
-        <v>2.12855</v>
+        <v>7.476260000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>2128.55</v>
+        <v>7476.26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.962073</v>
+        <v>0.962099</v>
       </c>
       <c r="B33" t="n">
-        <v>2.1419</v>
+        <v>7.45346</v>
       </c>
       <c r="C33" t="n">
-        <v>2141.9</v>
+        <v>7453.46</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99325</v>
+        <v>0.993271</v>
       </c>
       <c r="B34" t="n">
-        <v>2.15508</v>
+        <v>7.429810000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>2155.08</v>
+        <v>7429.81</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>1.02429</v>
+        <v>1.02458</v>
       </c>
       <c r="B35" t="n">
-        <v>2.16807</v>
+        <v>7.40541</v>
       </c>
       <c r="C35" t="n">
-        <v>2168.07</v>
+        <v>7405.41</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>1.05525</v>
+        <v>1.05596</v>
       </c>
       <c r="B36" t="n">
-        <v>2.18088</v>
+        <v>7.37997</v>
       </c>
       <c r="C36" t="n">
-        <v>2180.88</v>
+        <v>7379.97</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>1.08622</v>
+        <v>1.08734</v>
       </c>
       <c r="B37" t="n">
-        <v>2.19352</v>
+        <v>7.35334</v>
       </c>
       <c r="C37" t="n">
-        <v>2193.52</v>
+        <v>7353.34</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>1.11719</v>
+        <v>1.11872</v>
       </c>
       <c r="B38" t="n">
-        <v>2.20596</v>
+        <v>7.32583</v>
       </c>
       <c r="C38" t="n">
-        <v>2205.96</v>
+        <v>7325.83</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>1.14815</v>
+        <v>1.1501</v>
       </c>
       <c r="B39" t="n">
-        <v>2.21827</v>
+        <v>7.29744</v>
       </c>
       <c r="C39" t="n">
-        <v>2218.27</v>
+        <v>7297.44</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>1.17912</v>
+        <v>1.18148</v>
       </c>
       <c r="B40" t="n">
-        <v>2.23046</v>
+        <v>7.268020000000001</v>
       </c>
       <c r="C40" t="n">
-        <v>2230.46</v>
+        <v>7268.02</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1.21009</v>
+        <v>1.21286</v>
       </c>
       <c r="B41" t="n">
-        <v>2.24255</v>
+        <v>7.23747</v>
       </c>
       <c r="C41" t="n">
-        <v>2242.55</v>
+        <v>7237.47</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>1.24106</v>
+        <v>1.24424</v>
       </c>
       <c r="B42" t="n">
-        <v>2.25451</v>
+        <v>7.20574</v>
       </c>
       <c r="C42" t="n">
-        <v>2254.51</v>
+        <v>7205.74</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>1.27203</v>
+        <v>1.27559</v>
       </c>
       <c r="B43" t="n">
-        <v>2.26632</v>
+        <v>7.17285</v>
       </c>
       <c r="C43" t="n">
-        <v>2266.32</v>
+        <v>7172.85</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>1.30299</v>
+        <v>1.30633</v>
       </c>
       <c r="B44" t="n">
-        <v>2.27799</v>
+        <v>7.13935</v>
       </c>
       <c r="C44" t="n">
-        <v>2277.99</v>
+        <v>7139.35</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>1.33396</v>
+        <v>1.3376</v>
       </c>
       <c r="B45" t="n">
-        <v>2.28953</v>
+        <v>7.10413</v>
       </c>
       <c r="C45" t="n">
-        <v>2289.53</v>
+        <v>7104.13</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>1.36493</v>
+        <v>1.36839</v>
       </c>
       <c r="B46" t="n">
-        <v>2.30094</v>
+        <v>7.06828</v>
       </c>
       <c r="C46" t="n">
-        <v>2300.94</v>
+        <v>7068.28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>1.3959</v>
+        <v>1.3996</v>
       </c>
       <c r="B47" t="n">
-        <v>2.31223</v>
+        <v>7.03059</v>
       </c>
       <c r="C47" t="n">
-        <v>2312.23</v>
+        <v>7030.59</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1.42687</v>
+        <v>1.43033</v>
       </c>
       <c r="B48" t="n">
-        <v>2.32345</v>
+        <v>6.99207</v>
       </c>
       <c r="C48" t="n">
-        <v>2323.45</v>
+        <v>6992.07</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.45783</v>
+        <v>1.4616</v>
       </c>
       <c r="B49" t="n">
-        <v>2.33456</v>
+        <v>6.95143</v>
       </c>
       <c r="C49" t="n">
-        <v>2334.56</v>
+        <v>6951.43</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.4888</v>
+        <v>1.49243</v>
       </c>
       <c r="B50" t="n">
-        <v>2.34551</v>
+        <v>6.90993</v>
       </c>
       <c r="C50" t="n">
-        <v>2345.51</v>
+        <v>6909.93</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.51977</v>
+        <v>1.52358</v>
       </c>
       <c r="B51" t="n">
-        <v>2.3564</v>
+        <v>6.86644</v>
       </c>
       <c r="C51" t="n">
-        <v>2356.4</v>
+        <v>6866.44</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.55074</v>
+        <v>1.55448</v>
       </c>
       <c r="B52" t="n">
-        <v>2.36721</v>
+        <v>6.821800000000001</v>
       </c>
       <c r="C52" t="n">
-        <v>2367.21</v>
+        <v>6821.8</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>1.5817</v>
+        <v>1.58557</v>
       </c>
       <c r="B53" t="n">
-        <v>2.37788</v>
+        <v>6.77531</v>
       </c>
       <c r="C53" t="n">
-        <v>2377.88</v>
+        <v>6775.31</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1.61267</v>
+        <v>1.61655</v>
       </c>
       <c r="B54" t="n">
-        <v>2.3885</v>
+        <v>6.72722</v>
       </c>
       <c r="C54" t="n">
-        <v>2388.5</v>
+        <v>6727.22</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>1.64364</v>
+        <v>1.64746</v>
       </c>
       <c r="B55" t="n">
-        <v>2.39901</v>
+        <v>6.677560000000001</v>
       </c>
       <c r="C55" t="n">
-        <v>2399.01</v>
+        <v>6677.56</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>1.67461</v>
+        <v>1.67861</v>
       </c>
       <c r="B56" t="n">
-        <v>2.40932</v>
+        <v>6.6257</v>
       </c>
       <c r="C56" t="n">
-        <v>2409.32</v>
+        <v>6625.7</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.70558</v>
+        <v>1.70933</v>
       </c>
       <c r="B57" t="n">
-        <v>2.4196</v>
+        <v>6.57281</v>
       </c>
       <c r="C57" t="n">
-        <v>2419.6</v>
+        <v>6572.81</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1.73654</v>
+        <v>1.74063</v>
       </c>
       <c r="B58" t="n">
-        <v>2.42976</v>
+        <v>6.51714</v>
       </c>
       <c r="C58" t="n">
-        <v>2429.76</v>
+        <v>6517.14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1.76751</v>
+        <v>1.77137</v>
       </c>
       <c r="B59" t="n">
-        <v>2.4398</v>
+        <v>6.46082</v>
       </c>
       <c r="C59" t="n">
-        <v>2439.8</v>
+        <v>6460.82</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1.79848</v>
+        <v>1.80262</v>
       </c>
       <c r="B60" t="n">
-        <v>2.4498</v>
+        <v>6.40186</v>
       </c>
       <c r="C60" t="n">
-        <v>2449.8</v>
+        <v>6401.86</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>1.82944</v>
+        <v>1.83335</v>
       </c>
       <c r="B61" t="n">
-        <v>2.45969</v>
+        <v>6.34222</v>
       </c>
       <c r="C61" t="n">
-        <v>2459.69</v>
+        <v>6342.22</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>1.86041</v>
+        <v>1.86464</v>
       </c>
       <c r="B62" t="n">
-        <v>2.46947</v>
+        <v>6.28021</v>
       </c>
       <c r="C62" t="n">
-        <v>2469.47</v>
+        <v>6280.21</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>1.89138</v>
+        <v>1.89538</v>
       </c>
       <c r="B63" t="n">
-        <v>2.47914</v>
+        <v>6.21807</v>
       </c>
       <c r="C63" t="n">
-        <v>2479.14</v>
+        <v>6218.07</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>1.92235</v>
+        <v>1.92665</v>
       </c>
       <c r="B64" t="n">
-        <v>2.48869</v>
+        <v>6.153390000000001</v>
       </c>
       <c r="C64" t="n">
-        <v>2488.69</v>
+        <v>6153.39</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>1.95332</v>
+        <v>1.95724</v>
       </c>
       <c r="B65" t="n">
-        <v>2.49804</v>
+        <v>6.08912</v>
       </c>
       <c r="C65" t="n">
-        <v>2498.04</v>
+        <v>6089.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>1.98428</v>
+        <v>1.98863</v>
       </c>
       <c r="B66" t="n">
-        <v>2.50731</v>
+        <v>6.02199</v>
       </c>
       <c r="C66" t="n">
-        <v>2507.31</v>
+        <v>6021.99</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>2.01515</v>
+        <v>2.0193</v>
       </c>
       <c r="B67" t="n">
-        <v>2.51645</v>
+        <v>5.955430000000001</v>
       </c>
       <c r="C67" t="n">
-        <v>2516.45</v>
+        <v>5955.43</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>2.04571</v>
+        <v>2.05049</v>
       </c>
       <c r="B68" t="n">
-        <v>2.52543</v>
+        <v>5.88611</v>
       </c>
       <c r="C68" t="n">
-        <v>2525.43</v>
+        <v>5886.11</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>2.07626</v>
+        <v>2.0814</v>
       </c>
       <c r="B69" t="n">
-        <v>2.53434</v>
+        <v>5.817310000000001</v>
       </c>
       <c r="C69" t="n">
-        <v>2534.34</v>
+        <v>5817.31</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>2.10682</v>
+        <v>2.11236</v>
       </c>
       <c r="B70" t="n">
-        <v>2.54312</v>
+        <v>5.74678</v>
       </c>
       <c r="C70" t="n">
-        <v>2543.12</v>
+        <v>5746.78</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>2.13737</v>
+        <v>2.14347</v>
       </c>
       <c r="B71" t="n">
-        <v>2.55182</v>
+        <v>5.67637</v>
       </c>
       <c r="C71" t="n">
-        <v>2551.82</v>
+        <v>5676.37</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>2.16792</v>
+        <v>2.17394</v>
       </c>
       <c r="B72" t="n">
-        <v>2.56041</v>
+        <v>5.60637</v>
       </c>
       <c r="C72" t="n">
-        <v>2560.41</v>
+        <v>5606.37</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>2.19848</v>
+        <v>2.20577</v>
       </c>
       <c r="B73" t="n">
-        <v>2.56892</v>
+        <v>5.53408</v>
       </c>
       <c r="C73" t="n">
-        <v>2568.92</v>
+        <v>5534.08</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>2.22903</v>
+        <v>2.23617</v>
       </c>
       <c r="B74" t="n">
-        <v>2.57739</v>
+        <v>5.46313</v>
       </c>
       <c r="C74" t="n">
-        <v>2577.39</v>
+        <v>5463.13</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>2.25959</v>
+        <v>2.26736</v>
       </c>
       <c r="B75" t="n">
-        <v>2.5858</v>
+        <v>5.39173</v>
       </c>
       <c r="C75" t="n">
-        <v>2585.8</v>
+        <v>5391.73</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>2.29015</v>
+        <v>2.29853</v>
       </c>
       <c r="B76" t="n">
-        <v>2.59407</v>
+        <v>5.318680000000001</v>
       </c>
       <c r="C76" t="n">
-        <v>2594.07</v>
+        <v>5318.68</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>2.3207</v>
+        <v>2.32925</v>
       </c>
       <c r="B77" t="n">
-        <v>2.60239</v>
+        <v>5.24709</v>
       </c>
       <c r="C77" t="n">
-        <v>2602.39</v>
+        <v>5247.09</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>2.35126</v>
+        <v>2.36032</v>
       </c>
       <c r="B78" t="n">
-        <v>2.61056</v>
+        <v>5.175689999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>2610.56</v>
+        <v>5175.69</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>2.38181</v>
+        <v>2.39141</v>
       </c>
       <c r="B79" t="n">
-        <v>2.61873</v>
+        <v>5.10247</v>
       </c>
       <c r="C79" t="n">
-        <v>2618.73</v>
+        <v>5102.47</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>2.41236</v>
+        <v>2.42249</v>
       </c>
       <c r="B80" t="n">
-        <v>2.62674</v>
+        <v>5.03099</v>
       </c>
       <c r="C80" t="n">
-        <v>2626.74</v>
+        <v>5030.99</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>2.44381</v>
+        <v>2.45305</v>
       </c>
       <c r="B81" t="n">
-        <v>2.63507</v>
+        <v>4.96117</v>
       </c>
       <c r="C81" t="n">
-        <v>2635.07</v>
+        <v>4961.17</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>2.47538</v>
+        <v>2.48231</v>
       </c>
       <c r="B82" t="n">
-        <v>2.64324</v>
+        <v>4.89311</v>
       </c>
       <c r="C82" t="n">
-        <v>2643.24</v>
+        <v>4893.11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>2.50696</v>
+        <v>2.51156</v>
       </c>
       <c r="B83" t="n">
-        <v>2.65148</v>
+        <v>4.82649</v>
       </c>
       <c r="C83" t="n">
-        <v>2651.48</v>
+        <v>4826.49</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>2.53853</v>
+        <v>2.54345</v>
       </c>
       <c r="B84" t="n">
-        <v>2.65958</v>
+        <v>4.75354</v>
       </c>
       <c r="C84" t="n">
-        <v>2659.58</v>
+        <v>4753.54</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>2.5701</v>
+        <v>2.57545</v>
       </c>
       <c r="B85" t="n">
-        <v>2.66764</v>
+        <v>4.680680000000001</v>
       </c>
       <c r="C85" t="n">
-        <v>2667.64</v>
+        <v>4680.68</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>2.60168</v>
+        <v>2.60745</v>
       </c>
       <c r="B86" t="n">
-        <v>2.67568</v>
+        <v>4.60967</v>
       </c>
       <c r="C86" t="n">
-        <v>2675.68</v>
+        <v>4609.67</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>2.63325</v>
+        <v>2.63945</v>
       </c>
       <c r="B87" t="n">
-        <v>2.68363</v>
+        <v>4.53923</v>
       </c>
       <c r="C87" t="n">
-        <v>2683.63</v>
+        <v>4539.23</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>2.66483</v>
+        <v>2.6699</v>
       </c>
       <c r="B88" t="n">
-        <v>2.69157</v>
+        <v>4.470770000000001</v>
       </c>
       <c r="C88" t="n">
-        <v>2691.57</v>
+        <v>4470.77</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>2.6964</v>
+        <v>2.69977</v>
       </c>
       <c r="B89" t="n">
-        <v>2.69943</v>
+        <v>4.40415</v>
       </c>
       <c r="C89" t="n">
-        <v>2699.43</v>
+        <v>4404.15</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>2.72797</v>
+        <v>2.72964</v>
       </c>
       <c r="B90" t="n">
-        <v>2.70728</v>
+        <v>4.33955</v>
       </c>
       <c r="C90" t="n">
-        <v>2707.28</v>
+        <v>4339.55</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>2.75955</v>
+        <v>2.7595</v>
       </c>
       <c r="B91" t="n">
-        <v>2.71504</v>
+        <v>4.276680000000001</v>
       </c>
       <c r="C91" t="n">
-        <v>2715.04</v>
+        <v>4276.68</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>2.79112</v>
+        <v>2.78788</v>
       </c>
       <c r="B92" t="n">
-        <v>2.72279</v>
+        <v>4.21596</v>
       </c>
       <c r="C92" t="n">
-        <v>2722.79</v>
+        <v>4215.96</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>2.82269</v>
+        <v>2.82055</v>
       </c>
       <c r="B93" t="n">
-        <v>2.73046</v>
+        <v>4.14639</v>
       </c>
       <c r="C93" t="n">
-        <v>2730.46</v>
+        <v>4146.39</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>2.85426</v>
+        <v>2.85383</v>
       </c>
       <c r="B94" t="n">
-        <v>2.73813</v>
+        <v>4.0776</v>
       </c>
       <c r="C94" t="n">
-        <v>2738.13</v>
+        <v>4077.6</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>2.88584</v>
+        <v>2.88529</v>
       </c>
       <c r="B95" t="n">
-        <v>2.74572</v>
+        <v>4.01311</v>
       </c>
       <c r="C95" t="n">
-        <v>2745.72</v>
+        <v>4013.11</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>2.91741</v>
+        <v>2.91601</v>
       </c>
       <c r="B96" t="n">
-        <v>2.75328</v>
+        <v>3.95094</v>
       </c>
       <c r="C96" t="n">
-        <v>2753.28</v>
+        <v>3950.94</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>2.94898</v>
+        <v>2.94673</v>
       </c>
       <c r="B97" t="n">
-        <v>2.7608</v>
+        <v>3.89328</v>
       </c>
       <c r="C97" t="n">
-        <v>2760.8</v>
+        <v>3893.28</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>2.98056</v>
+        <v>2.97745</v>
       </c>
       <c r="B98" t="n">
-        <v>2.76829</v>
+        <v>3.83756</v>
       </c>
       <c r="C98" t="n">
-        <v>2768.29</v>
+        <v>3837.56</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>3.01213</v>
+        <v>3.00817</v>
       </c>
       <c r="B99" t="n">
-        <v>2.77573</v>
+        <v>3.78368</v>
       </c>
       <c r="C99" t="n">
-        <v>2775.73</v>
+        <v>3783.68</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>3.0437</v>
+        <v>3.03871</v>
       </c>
       <c r="B100" t="n">
-        <v>2.78311</v>
+        <v>3.73243</v>
       </c>
       <c r="C100" t="n">
-        <v>2783.11</v>
+        <v>3732.43</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>3.07528</v>
+        <v>3.06687</v>
       </c>
       <c r="B101" t="n">
-        <v>2.79049</v>
+        <v>3.68312</v>
       </c>
       <c r="C101" t="n">
-        <v>2790.49</v>
+        <v>3683.12</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>3.10685</v>
+        <v>3.09503</v>
       </c>
       <c r="B102" t="n">
-        <v>2.79779</v>
+        <v>3.63591</v>
       </c>
       <c r="C102" t="n">
-        <v>2797.79</v>
+        <v>3635.91</v>
       </c>
     </row>
   </sheetData>
